--- a/high_violations_per_statement.xlsx
+++ b/high_violations_per_statement.xlsx
@@ -8,22 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron.VanHorn\Work\GitHub\AnnRpt-FMA-OLE-Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3FF70CDA-D9BA-48BB-9564-BA3DE1AEECDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7C014712-AB39-4550-A49B-082A295A6182}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" tabRatio="679"/>
   </bookViews>
   <sheets>
-    <sheet name="high_violations_per_statement" sheetId="1" r:id="rId1"/>
+    <sheet name="full data" sheetId="1" r:id="rId1"/>
+    <sheet name="aggregated by Statement Type" sheetId="2" r:id="rId2"/>
+    <sheet name="Aggregated by Old Category" sheetId="3" r:id="rId3"/>
+    <sheet name="Aggregated by New Category" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">high_violations_per_statement!$A$1:$F$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Aggregated by New Category'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Aggregated by Old Category'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'aggregated by Statement Type'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'full data'!$A$1:$F$39</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="69">
   <si>
     <t>DEPLOYMENT LOGISTICS</t>
   </si>
@@ -170,6 +176,66 @@
   </si>
   <si>
     <t>OLE System</t>
+  </si>
+  <si>
+    <t># Statements with &gt;75 Violations</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Limited Access Programs</t>
+  </si>
+  <si>
+    <t>2022 + Old System</t>
+  </si>
+  <si>
+    <t>2023 + Old System</t>
+  </si>
+  <si>
+    <t>2023 + New System</t>
+  </si>
+  <si>
+    <t>OLE Priority: Safety and Duties</t>
+  </si>
+  <si>
+    <t>Amendment 91 Salmon</t>
+  </si>
+  <si>
+    <t>Seabird Avoidance Measures</t>
+  </si>
+  <si>
+    <t>Intimidation, Coercion, Hostile work environment</t>
+  </si>
+  <si>
+    <t>OLE Priority: Inter-Personal</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>PROHIBITED SPECIES, MARINE MAMMALS, SEABIRDS</t>
+  </si>
+  <si>
+    <t>PERMITS, DOCUMENTS, RECORD KEEPING AND REPORTING</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t># Statements with &gt;100 Violations</t>
+  </si>
+  <si>
+    <t># Statements with &gt;200 Violations</t>
+  </si>
+  <si>
+    <t># Statements with &gt;300 Violations</t>
+  </si>
+  <si>
+    <t># Statements with &gt;400 Violations</t>
+  </si>
+  <si>
+    <t>PROHIBITED RESOURCE &amp; PROHIBITED SPECIES</t>
   </si>
 </sst>
 </file>
@@ -511,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -699,6 +765,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -744,52 +855,62 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1146,809 +1267,2386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="16">
+        <v>95</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="9">
+        <v>86</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="11" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="9">
+        <v>169</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="9">
+        <v>88</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>2022</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B6" s="5">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="5">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="5">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="5">
+        <v>103</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="5">
         <v>222</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>2022</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B11" s="5">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="5">
         <v>222</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+    <row r="13" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>2022</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B13" s="5">
+        <v>96</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="5">
+        <v>125</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="5">
+        <v>116</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="7">
+        <v>100</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="7">
         <v>150</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="6">
-        <v>125</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7" t="s">
+    <row r="18" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="7">
+        <v>111</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B6" s="6">
-        <v>116</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="7" t="s">
+    <row r="19" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="7">
+        <v>500</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="20" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="9">
+        <v>89</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="9">
+        <v>88</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="9">
+        <v>83</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="9">
+        <v>402</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="9">
+        <v>122</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="9">
+        <v>409</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="9">
+        <v>96</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="9">
+        <v>409</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="9">
+        <v>226</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="9">
+        <v>100</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="9">
+        <v>84</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="9">
         <v>103</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="6">
-        <v>100</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="6">
-        <v>100</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="6">
-        <v>96</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="6">
-        <v>89</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>2023</v>
-      </c>
-      <c r="B12" s="9">
-        <v>500</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="E31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="9">
+        <v>271</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="9">
-        <v>150</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
-        <v>2023</v>
-      </c>
-      <c r="B14" s="9">
-        <v>111</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="E32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="9">
+        <v>251</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>2023</v>
-      </c>
-      <c r="B15" s="9">
-        <v>100</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B16" s="12">
-        <v>409</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B17" s="12">
-        <v>409</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B18" s="12">
-        <v>402</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B19" s="12">
-        <v>271</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="E33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="9">
+        <v>220</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B20" s="12">
-        <v>251</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B21" s="12">
-        <v>226</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B22" s="12">
-        <v>220</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B23" s="12">
-        <v>169</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B24" s="12">
-        <v>122</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B25" s="12">
-        <v>103</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B26" s="12">
-        <v>100</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B27" s="12">
-        <v>96</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B28" s="12">
-        <v>95</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B29" s="12">
-        <v>89</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B30" s="12">
-        <v>88</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B31" s="12">
-        <v>88</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B32" s="12">
+      <c r="F34" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="9">
         <v>86</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B33" s="12">
-        <v>86</v>
-      </c>
-      <c r="C33" s="13" t="s">
+      <c r="C35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A34" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B34" s="12">
+      <c r="F35" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="9">
         <v>85</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B35" s="12">
+      <c r="F36" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="9">
         <v>85</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C37" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E37" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B36" s="12">
-        <v>84</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B37" s="12">
-        <v>83</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B38" s="12">
+      <c r="F37" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B38" s="9">
+        <v>77</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B39" s="9">
         <v>80</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="13" t="s">
+      <c r="D39" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A39" s="12">
-        <v>2023</v>
-      </c>
-      <c r="B39" s="12">
-        <v>77</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="9" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F39">
     <sortState ref="A2:F39">
-      <sortCondition ref="A1:A39"/>
+      <sortCondition ref="E1:E39"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="21.26953125" style="2" customWidth="1"/>
+    <col min="3" max="7" width="18.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="20.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="25.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/high_violations_per_statement.xlsx
+++ b/high_violations_per_statement.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron.VanHorn\Work\GitHub\AnnRpt-FMA-OLE-Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7C014712-AB39-4550-A49B-082A295A6182}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A132098E-8DBB-4BA7-B071-16C6018D361F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" tabRatio="679"/>
   </bookViews>
   <sheets>
     <sheet name="full data" sheetId="1" r:id="rId1"/>
-    <sheet name="aggregated by Statement Type" sheetId="2" r:id="rId2"/>
-    <sheet name="Aggregated by Old Category" sheetId="3" r:id="rId3"/>
-    <sheet name="Aggregated by New Category" sheetId="4" r:id="rId4"/>
+    <sheet name="Aggregated by Vessel" sheetId="5" r:id="rId2"/>
+    <sheet name="Aggregated by Statement Type" sheetId="2" r:id="rId3"/>
+    <sheet name="Aggregated by Old Category" sheetId="3" r:id="rId4"/>
+    <sheet name="Aggregated by New Category" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Aggregated by New Category'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Aggregated by Old Category'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'aggregated by Statement Type'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Aggregated by New Category'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Aggregated by Old Category'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Aggregated by Statement Type'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Aggregated by Vessel'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'full data'!$A$1:$F$39</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="113">
   <si>
     <t>DEPLOYMENT LOGISTICS</t>
   </si>
@@ -178,6 +180,9 @@
     <t>OLE System</t>
   </si>
   <si>
+    <t># of Statement Types</t>
+  </si>
+  <si>
     <t># Statements with &gt;75 Violations</t>
   </si>
   <si>
@@ -229,13 +234,142 @@
     <t># Statements with &gt;200 Violations</t>
   </si>
   <si>
-    <t># Statements with &gt;300 Violations</t>
-  </si>
-  <si>
     <t># Statements with &gt;400 Violations</t>
   </si>
   <si>
     <t>PROHIBITED RESOURCE &amp; PROHIBITED SPECIES</t>
+  </si>
+  <si>
+    <t>Vessel Name</t>
+  </si>
+  <si>
+    <t>No Permit</t>
+  </si>
+  <si>
+    <t>ENTERPRISE</t>
+  </si>
+  <si>
+    <t>TRIDENT SFDS-AKUTAN</t>
+  </si>
+  <si>
+    <t>SEATTLE ENTERPRISE</t>
+  </si>
+  <si>
+    <t>NORTH STAR</t>
+  </si>
+  <si>
+    <t>DEFENDER</t>
+  </si>
+  <si>
+    <t>NORTHERN JAEGER</t>
+  </si>
+  <si>
+    <t>ARICA</t>
+  </si>
+  <si>
+    <t>PETER PAN SFDS LLC - KING COVE</t>
+  </si>
+  <si>
+    <t>SEAFREEZE ALASKA</t>
+  </si>
+  <si>
+    <t>ISLAND ENTERPRISE</t>
+  </si>
+  <si>
+    <t>U S  LIBERATOR</t>
+  </si>
+  <si>
+    <t>KATIE ANN</t>
+  </si>
+  <si>
+    <t>AMERICAN DYNASTY</t>
+  </si>
+  <si>
+    <t>ALASKA VICTORY</t>
+  </si>
+  <si>
+    <t>GOLDEN ALASKA</t>
+  </si>
+  <si>
+    <t>BARANOF</t>
+  </si>
+  <si>
+    <t>UNIMAK</t>
+  </si>
+  <si>
+    <t>TRIDENT SFDS-KODIAK</t>
+  </si>
+  <si>
+    <t>BEAUTY BAY</t>
+  </si>
+  <si>
+    <t>WESTWARD SFDS</t>
+  </si>
+  <si>
+    <t>TRIDENT SFDS-SAND POINT</t>
+  </si>
+  <si>
+    <t>ALASKA WARRIOR</t>
+  </si>
+  <si>
+    <t>ALASKA SPIRIT</t>
+  </si>
+  <si>
+    <t>ALEUTIAN BEAUTY</t>
+  </si>
+  <si>
+    <t>Statement(s) with &gt;75 Violations</t>
+  </si>
+  <si>
+    <t>Statement(s) with &gt;100 Violations</t>
+  </si>
+  <si>
+    <t>Statement(s) with &gt;200 Violations</t>
+  </si>
+  <si>
+    <t>Statement(s) with &gt;400 Violations</t>
+  </si>
+  <si>
+    <t>Year(s)</t>
+  </si>
+  <si>
+    <t>GENERAL REPORTING REQUIREMENTS // BSAI SALMON BYCATCH // Prohibited Species - Mishandling</t>
+  </si>
+  <si>
+    <t>BSAI SALMON BYCATCH // Prohibited Species - Mishandling</t>
+  </si>
+  <si>
+    <t>Prohibited Species  - Mishandling</t>
+  </si>
+  <si>
+    <t>OLD / NEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amendment 80 // Interference/Sample Biasing </t>
+  </si>
+  <si>
+    <t>2022 / 2023</t>
+  </si>
+  <si>
+    <t>GENERAL SAFETY EQUIPMENT // Record Keeping and Reporting</t>
+  </si>
+  <si>
+    <t>BIN MONITORING // Amendment 80 // Reasonable Assistance</t>
+  </si>
+  <si>
+    <t>BIN MONITORING // Amendment 80</t>
+  </si>
+  <si>
+    <t>OBSERVER COVERAGE // CATCH WEIGHING</t>
+  </si>
+  <si>
+    <t>TRIDENT SEAFOODS - KODIAK</t>
+  </si>
+  <si>
+    <t>SAFETY (2) // MONITORING THE FLOW OF FISH // FALSE REPORTING // SCALES</t>
+  </si>
+  <si>
+    <t>MONITORING THE FLOW OF FISH // FALSE REPORTING</t>
   </si>
 </sst>
 </file>
@@ -577,7 +711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -810,6 +944,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -855,7 +1026,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -910,6 +1081,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1267,11 +1456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1282,10 +1471,12 @@
     <col min="4" max="4" width="20.08984375" style="2" customWidth="1"/>
     <col min="5" max="5" width="21" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" customWidth="1"/>
+    <col min="11" max="11" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
@@ -1301,11 +1492,14 @@
       <c r="E1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G1" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>2023</v>
       </c>
@@ -1321,14 +1515,17 @@
       <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2023</v>
       </c>
@@ -1344,14 +1541,17 @@
       <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>2023</v>
       </c>
@@ -1367,14 +1567,17 @@
       <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2023</v>
       </c>
@@ -1390,11 +1593,14 @@
       <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2022</v>
       </c>
@@ -1410,11 +1616,14 @@
       <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2022</v>
       </c>
@@ -1430,11 +1639,14 @@
       <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G7" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>2022</v>
       </c>
@@ -1450,11 +1662,14 @@
       <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G8" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2022</v>
       </c>
@@ -1470,11 +1685,14 @@
       <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2022</v>
       </c>
@@ -1490,11 +1708,14 @@
       <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2022</v>
       </c>
@@ -1510,11 +1731,14 @@
       <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G11" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2022</v>
       </c>
@@ -1530,11 +1754,14 @@
       <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G12" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2022</v>
       </c>
@@ -1550,11 +1777,14 @@
       <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G13" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2022</v>
       </c>
@@ -1570,11 +1800,14 @@
       <c r="E14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G14" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2022</v>
       </c>
@@ -1590,11 +1823,14 @@
       <c r="E15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G15" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2023</v>
       </c>
@@ -1610,11 +1846,14 @@
       <c r="E16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G16" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2023</v>
       </c>
@@ -1630,11 +1869,14 @@
       <c r="E17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G17" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2023</v>
       </c>
@@ -1650,11 +1892,14 @@
       <c r="E18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G18" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2023</v>
       </c>
@@ -1670,11 +1915,14 @@
       <c r="E19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="G19" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2023</v>
       </c>
@@ -1690,11 +1938,14 @@
       <c r="E20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F20" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>2023</v>
       </c>
@@ -1710,11 +1961,14 @@
       <c r="E21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>2023</v>
       </c>
@@ -1730,11 +1984,14 @@
       <c r="E22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F22" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>2023</v>
       </c>
@@ -1750,11 +2007,14 @@
       <c r="E23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F23" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>2023</v>
       </c>
@@ -1770,11 +2030,14 @@
       <c r="E24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F24" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>2023</v>
       </c>
@@ -1790,11 +2053,14 @@
       <c r="E25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F25" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>2023</v>
       </c>
@@ -1810,11 +2076,14 @@
       <c r="E26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F26" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>2023</v>
       </c>
@@ -1830,11 +2099,14 @@
       <c r="E27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F27" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>2023</v>
       </c>
@@ -1850,11 +2122,14 @@
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F28" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>2023</v>
       </c>
@@ -1870,11 +2145,14 @@
       <c r="E29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F29" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>2023</v>
       </c>
@@ -1890,11 +2168,14 @@
       <c r="E30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F30" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>2023</v>
       </c>
@@ -1910,11 +2191,14 @@
       <c r="E31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F31" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>2023</v>
       </c>
@@ -1930,11 +2214,14 @@
       <c r="E32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F32" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>2023</v>
       </c>
@@ -1950,11 +2237,14 @@
       <c r="E33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F33" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>2023</v>
       </c>
@@ -1970,11 +2260,14 @@
       <c r="E34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F34" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>2023</v>
       </c>
@@ -1990,11 +2283,14 @@
       <c r="E35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="F35" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>2023</v>
       </c>
@@ -2010,11 +2306,14 @@
       <c r="E36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="F36" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>2023</v>
       </c>
@@ -2030,11 +2329,14 @@
       <c r="E37" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="F37" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
         <v>2023</v>
       </c>
@@ -2050,11 +2352,14 @@
       <c r="E38" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F38" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="9">
         <v>2023</v>
       </c>
@@ -2070,40 +2375,644 @@
       <c r="E39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>3</v>
+      <c r="F39" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F39">
-    <sortState ref="A2:F39">
-      <sortCondition ref="E1:E39"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="3" width="17.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="15">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:H26">
+      <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="2"/>
     <col min="2" max="2" width="21.26953125" style="2" customWidth="1"/>
-    <col min="3" max="7" width="18.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.7265625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" style="2" customWidth="1"/>
+    <col min="3" max="6" width="18.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
@@ -2111,799 +3020,724 @@
         <v>45</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="H6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="H8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2022</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
+      <c r="G9" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="H11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="I13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="I19" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="I20" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="I21" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="8" t="s">
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="8">
-        <v>3</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="8">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8">
-        <v>2</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2023</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C23" s="8">
         <v>1</v>
       </c>
       <c r="D23" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I23" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="8">
-        <v>3</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="I25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>2023</v>
       </c>
@@ -2922,20 +3756,17 @@
       <c r="F26" s="8">
         <v>0</v>
       </c>
-      <c r="G26" s="8">
-        <v>0</v>
+      <c r="G26" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>2023</v>
       </c>
@@ -2954,32 +3785,33 @@
       <c r="F27" s="8">
         <v>0</v>
       </c>
-      <c r="G27" s="8">
-        <v>0</v>
+      <c r="G27" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:I1">
+    <sortState ref="A2:I27">
+      <sortCondition descending="1" ref="F1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2989,12 +3821,11 @@
     <col min="3" max="3" width="16.90625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="17.08984375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
@@ -3002,25 +3833,22 @@
         <v>46</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>2022</v>
       </c>
@@ -3039,14 +3867,11 @@
       <c r="F2" s="10">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G2" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2022</v>
       </c>
@@ -3065,14 +3890,11 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2022</v>
       </c>
@@ -3091,14 +3913,11 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2022</v>
       </c>
@@ -3117,14 +3936,11 @@
       <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2022</v>
       </c>
@@ -3143,14 +3959,11 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2023</v>
       </c>
@@ -3169,14 +3982,11 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2023</v>
       </c>
@@ -3195,14 +4005,11 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G8" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2023</v>
       </c>
@@ -3221,14 +4028,11 @@
       <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G9" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2023</v>
       </c>
@@ -3247,14 +4051,11 @@
       <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G10" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2023</v>
       </c>
@@ -3273,14 +4074,11 @@
       <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G11" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2023</v>
       </c>
@@ -3299,14 +4097,11 @@
       <c r="F12" s="8">
         <v>2</v>
       </c>
-      <c r="G12" s="8">
-        <v>2</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G12" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2023</v>
       </c>
@@ -3325,14 +4120,11 @@
       <c r="F13" s="8">
         <v>0</v>
       </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G13" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2023</v>
       </c>
@@ -3351,26 +4143,23 @@
       <c r="F14" s="8">
         <v>0</v>
       </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>60</v>
+      <c r="G14" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3380,12 +4169,11 @@
     <col min="3" max="3" width="16.453125" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.08984375" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="17.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
@@ -3393,77 +4181,68 @@
         <v>47</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>2023</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="15">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15">
         <v>2</v>
       </c>
-      <c r="C2" s="15">
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0</v>
-      </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G3" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2023</v>
       </c>
@@ -3482,126 +4261,111 @@
       <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G4" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2023</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C5" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
       </c>
       <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
         <v>2</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="8">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8">
-        <v>3</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8">
-        <v>3</v>
-      </c>
-      <c r="E7" s="8">
-        <v>3</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="C9" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -3612,14 +4376,11 @@
       <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G9" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2023</v>
       </c>
@@ -3638,15 +4399,16 @@
       <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>60</v>
+      <c r="G10" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G10">
+      <sortCondition descending="1" ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/high_violations_per_statement.xlsx
+++ b/high_violations_per_statement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron.VanHorn\Work\GitHub\AnnRpt-FMA-OLE-Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A132098E-8DBB-4BA7-B071-16C6018D361F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{01C140D5-C901-419A-B2A9-E8E0FF10ED3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" tabRatio="679"/>
   </bookViews>
